--- a/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
+++ b/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED247BA-E322-4ACA-B89F-9C67D589822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FBC7FC-DC56-4AC0-B756-F1D2C84052DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
+    <sheet name="EDA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -652,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F52D858-0BD2-467F-84F0-576111609A89}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -914,4 +938,765 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BED0B0-1A5D-4C4F-947E-F0F700AE0FB7}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2014</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>2010</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="str" cm="1">
+        <f t="array" ref="G6:G27">_xlfn.LET(_xlpm.x,_xlfn.TOCOL(A3:A10&amp;"|"&amp;_xlfn.DROP(_xlfn.REDUCE("",B3:B10,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,",")))),1),TRUE),_xlfn._xlws.FILTER(_xlpm.x,NOT(ISNA(_xlpm.x))))</f>
+        <v>Argentina|2022</v>
+      </c>
+      <c r="H6" t="str" cm="1">
+        <f t="array" ref="H6:I6">_xlfn.TEXTSPLIT(G6,"|")</f>
+        <v>Argentina</v>
+      </c>
+      <c r="I6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:K27">_xlfn._xlws.SORT(_xlfn.HSTACK(_xlfn.TAKE(H6:I27,,-1)+0,_xlfn.TAKE(H6:I27,,1)),1,-1)</f>
+        <v>2022</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="M6" t="b" cm="1">
+        <f t="array" ref="M6:N27">D3:E24=_xlfn.ANCHORARRAY(J6)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2006</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Argentina| 1986</v>
+      </c>
+      <c r="H7" t="str" cm="1">
+        <f t="array" ref="H7:I7">_xlfn.TEXTSPLIT(G7,"|")</f>
+        <v>Argentina</v>
+      </c>
+      <c r="I7" t="str">
+        <v xml:space="preserve"> 1986</v>
+      </c>
+      <c r="J7">
+        <v>2018</v>
+      </c>
+      <c r="K7" t="str">
+        <v>France</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Argentina| 1978</v>
+      </c>
+      <c r="H8" t="str" cm="1">
+        <f t="array" ref="H8:I8">_xlfn.TEXTSPLIT(G8,"|")</f>
+        <v>Argentina</v>
+      </c>
+      <c r="I8" t="str">
+        <v xml:space="preserve"> 1978</v>
+      </c>
+      <c r="J8">
+        <v>2014</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="str">
+        <v>France|2018</v>
+      </c>
+      <c r="H9" t="str" cm="1">
+        <f t="array" ref="H9:I9">_xlfn.TEXTSPLIT(G9,"|")</f>
+        <v>France</v>
+      </c>
+      <c r="I9" t="str">
+        <v>2018</v>
+      </c>
+      <c r="J9">
+        <v>2010</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1994</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="str">
+        <v>France| 1998</v>
+      </c>
+      <c r="H10" t="str" cm="1">
+        <f t="array" ref="H10:I10">_xlfn.TEXTSPLIT(G10,"|")</f>
+        <v>France</v>
+      </c>
+      <c r="I10" t="str">
+        <v xml:space="preserve"> 1998</v>
+      </c>
+      <c r="J10">
+        <v>2006</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1990</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Germany|2014</v>
+      </c>
+      <c r="H11" t="str" cm="1">
+        <f t="array" ref="H11:I11">_xlfn.TEXTSPLIT(G11,"|")</f>
+        <v>Germany</v>
+      </c>
+      <c r="I11" t="str">
+        <v>2014</v>
+      </c>
+      <c r="J11">
+        <v>2002</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1986</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Germany| 1990</v>
+      </c>
+      <c r="H12" t="str" cm="1">
+        <f t="array" ref="H12:I12">_xlfn.TEXTSPLIT(G12,"|")</f>
+        <v>Germany</v>
+      </c>
+      <c r="I12" t="str">
+        <v xml:space="preserve"> 1990</v>
+      </c>
+      <c r="J12">
+        <v>1998</v>
+      </c>
+      <c r="K12" t="str">
+        <v>France</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1982</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Germany| 1974</v>
+      </c>
+      <c r="H13" t="str" cm="1">
+        <f t="array" ref="H13:I13">_xlfn.TEXTSPLIT(G13,"|")</f>
+        <v>Germany</v>
+      </c>
+      <c r="I13" t="str">
+        <v xml:space="preserve"> 1974</v>
+      </c>
+      <c r="J13">
+        <v>1994</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1978</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Germany| 1954</v>
+      </c>
+      <c r="H14" t="str" cm="1">
+        <f t="array" ref="H14:I14">_xlfn.TEXTSPLIT(G14,"|")</f>
+        <v>Germany</v>
+      </c>
+      <c r="I14" t="str">
+        <v xml:space="preserve"> 1954</v>
+      </c>
+      <c r="J14">
+        <v>1990</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1974</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Spain|2010</v>
+      </c>
+      <c r="H15" t="str" cm="1">
+        <f t="array" ref="H15:I15">_xlfn.TEXTSPLIT(G15,"|")</f>
+        <v>Spain</v>
+      </c>
+      <c r="I15" t="str">
+        <v>2010</v>
+      </c>
+      <c r="J15">
+        <v>1986</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1970</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Italy|2006</v>
+      </c>
+      <c r="H16" t="str" cm="1">
+        <f t="array" ref="H16:I16">_xlfn.TEXTSPLIT(G16,"|")</f>
+        <v>Italy</v>
+      </c>
+      <c r="I16" t="str">
+        <v>2006</v>
+      </c>
+      <c r="J16">
+        <v>1982</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1966</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Italy| 1982</v>
+      </c>
+      <c r="H17" t="str" cm="1">
+        <f t="array" ref="H17:I17">_xlfn.TEXTSPLIT(G17,"|")</f>
+        <v>Italy</v>
+      </c>
+      <c r="I17" t="str">
+        <v xml:space="preserve"> 1982</v>
+      </c>
+      <c r="J17">
+        <v>1978</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1962</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Italy| 1938</v>
+      </c>
+      <c r="H18" t="str" cm="1">
+        <f t="array" ref="H18:I18">_xlfn.TEXTSPLIT(G18,"|")</f>
+        <v>Italy</v>
+      </c>
+      <c r="I18" t="str">
+        <v xml:space="preserve"> 1938</v>
+      </c>
+      <c r="J18">
+        <v>1974</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1958</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Italy| 1934</v>
+      </c>
+      <c r="H19" t="str" cm="1">
+        <f t="array" ref="H19:I19">_xlfn.TEXTSPLIT(G19,"|")</f>
+        <v>Italy</v>
+      </c>
+      <c r="I19" t="str">
+        <v xml:space="preserve"> 1934</v>
+      </c>
+      <c r="J19">
+        <v>1970</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1954</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Brazil|2002</v>
+      </c>
+      <c r="H20" t="str" cm="1">
+        <f t="array" ref="H20:I20">_xlfn.TEXTSPLIT(G20,"|")</f>
+        <v>Brazil</v>
+      </c>
+      <c r="I20" t="str">
+        <v>2002</v>
+      </c>
+      <c r="J20">
+        <v>1966</v>
+      </c>
+      <c r="K20" t="str">
+        <v>England</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1950</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Brazil| 1994</v>
+      </c>
+      <c r="H21" t="str" cm="1">
+        <f t="array" ref="H21:I21">_xlfn.TEXTSPLIT(G21,"|")</f>
+        <v>Brazil</v>
+      </c>
+      <c r="I21" t="str">
+        <v xml:space="preserve"> 1994</v>
+      </c>
+      <c r="J21">
+        <v>1962</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1938</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Brazil| 1970</v>
+      </c>
+      <c r="H22" t="str" cm="1">
+        <f t="array" ref="H22:I22">_xlfn.TEXTSPLIT(G22,"|")</f>
+        <v>Brazil</v>
+      </c>
+      <c r="I22" t="str">
+        <v xml:space="preserve"> 1970</v>
+      </c>
+      <c r="J22">
+        <v>1958</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1934</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Brazil| 1962</v>
+      </c>
+      <c r="H23" t="str" cm="1">
+        <f t="array" ref="H23:I23">_xlfn.TEXTSPLIT(G23,"|")</f>
+        <v>Brazil</v>
+      </c>
+      <c r="I23" t="str">
+        <v xml:space="preserve"> 1962</v>
+      </c>
+      <c r="J23">
+        <v>1954</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>1930</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Brazil| 1958</v>
+      </c>
+      <c r="H24" t="str" cm="1">
+        <f t="array" ref="H24:I24">_xlfn.TEXTSPLIT(G24,"|")</f>
+        <v>Brazil</v>
+      </c>
+      <c r="I24" t="str">
+        <v xml:space="preserve"> 1958</v>
+      </c>
+      <c r="J24">
+        <v>1950</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Uruguay</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <v>England|1966</v>
+      </c>
+      <c r="H25" t="str" cm="1">
+        <f t="array" ref="H25:I25">_xlfn.TEXTSPLIT(G25,"|")</f>
+        <v>England</v>
+      </c>
+      <c r="I25" t="str">
+        <v>1966</v>
+      </c>
+      <c r="J25">
+        <v>1938</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <v>Uruguay|1950</v>
+      </c>
+      <c r="H26" t="str" cm="1">
+        <f t="array" ref="H26:I26">_xlfn.TEXTSPLIT(G26,"|")</f>
+        <v>Uruguay</v>
+      </c>
+      <c r="I26" t="str">
+        <v>1950</v>
+      </c>
+      <c r="J26">
+        <v>1934</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <v>Uruguay| 1930</v>
+      </c>
+      <c r="H27" t="str" cm="1">
+        <f t="array" ref="H27:I27">_xlfn.TEXTSPLIT(G27,"|")</f>
+        <v>Uruguay</v>
+      </c>
+      <c r="I27" t="str">
+        <v xml:space="preserve"> 1930</v>
+      </c>
+      <c r="J27">
+        <v>1930</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Uruguay</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
+++ b/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FBC7FC-DC56-4AC0-B756-F1D2C84052DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AE0088-89A0-49A1-8052-A21485D61A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
     <sheet name="EDA" sheetId="3" r:id="rId2"/>
+    <sheet name="MySingleFunction" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MySingleFunction!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -672,6 +674,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="864" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B8AF6A3E-FDED-4C7C-ACA9-737B8E37B624}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F52D858-0BD2-467F-84F0-576111609A89}">
   <dimension ref="A1:E24"/>
@@ -944,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BED0B0-1A5D-4C4F-947E-F0F700AE0FB7}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -1699,4 +1728,422 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169323CA-045F-470F-8E38-B08A45D52C2A}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2014</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="str" cm="1">
+        <f t="array" ref="H5:I27">_xlfn.LET(
+_xlpm.t,_xlfn.DROP(_xlfn.REDUCE("",B3:B10,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,",")))),1)+0,
+_xlpm.tc,A3:A10&amp;"|"&amp;_xlpm.t,
+_xlpm.tcc,_xlfn.TOCOL(_xlfn.IFNA(_xlpm.tc,1/0),3),
+_xlpm.a,_xlfn.DROP(_xlfn.REDUCE("",_xlpm.tcc,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),
+_xlfn.VSTACK(D2:E2,_xlfn._xlws.SORT(_xlfn.HSTACK(_xlfn.TAKE(_xlpm.a,,-1)+0,_xlfn.TAKE(_xlpm.a,,1)),1,-1))
+)</f>
+        <v>Year</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <v>Winner</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>2010</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>2022</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2006</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>2018</v>
+      </c>
+      <c r="I7" t="str">
+        <v>France</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>2014</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>2010</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1994</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>2006</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1990</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>2002</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1986</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>1998</v>
+      </c>
+      <c r="I12" t="str">
+        <v>France</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1982</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>1994</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1978</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>1990</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1974</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>1986</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1970</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>1982</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1966</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>1978</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1962</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>1974</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1958</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>1970</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1954</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>1966</v>
+      </c>
+      <c r="I20" t="str">
+        <v>England</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1950</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>1962</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1938</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>1958</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1934</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>1954</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>1930</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>1950</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>1938</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>1934</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>1930</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Uruguay</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
+++ b/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AE0088-89A0-49A1-8052-A21485D61A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A0882D-26F8-4C97-89E0-5E91595578AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
+    <workbookView xWindow="-18750" yWindow="230" windowWidth="18870" windowHeight="20330" activeTab="3" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
     <sheet name="EDA" sheetId="3" r:id="rId2"/>
     <sheet name="MySingleFunction" sheetId="4" r:id="rId3"/>
+    <sheet name="Alt" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Alt!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MySingleFunction!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!#REF!</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="22">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -129,12 +131,15 @@
   <si>
     <t>1950, 1930</t>
   </si>
+  <si>
+    <t>Link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +151,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,15 +193,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,6 +708,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -703,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F52D858-0BD2-467F-84F0-576111609A89}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,13 +737,13 @@
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -737,8 +756,11 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -752,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -766,7 +788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -780,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -794,7 +816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -808,7 +830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -822,7 +844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -836,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -850,7 +872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>1990</v>
       </c>
@@ -858,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>1986</v>
       </c>
@@ -866,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>1982</v>
       </c>
@@ -874,7 +896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>1978</v>
       </c>
@@ -882,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>1974</v>
       </c>
@@ -890,7 +912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>1970</v>
       </c>
@@ -963,9 +985,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{69BDA466-43A8-41A2-B15D-67600D13FC49}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1734,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169323CA-045F-470F-8E38-B08A45D52C2A}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2146,4 +2171,466 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C790FA-F128-46E7-B37E-F152F4ECCEE6}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2014</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>2010</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2006</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1994</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1990</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1986</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1982</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1978</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1974</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1970</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1966</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1962</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1958</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1954</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1950</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1938</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1934</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>1930</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="str" cm="1">
+        <f t="array" ref="B28:C50">_xlfn.LET(_xlpm.y, -MID(B3:B10, _xlfn.SEQUENCE(, 5, ,6), 4), _xlfn.VSTACK(D2:E2, _xlfn._xlws.SORT(MID(_xlfn.TOCOL(-_xlpm.y&amp;A3:A10, 2), {1,5}, {4,9}), , -1)))</f>
+        <v>Year</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Winner</v>
+      </c>
+      <c r="F28" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B28)</f>
+        <v>=LET(y, -MID(B3:B10, SEQUENCE(, 5, ,6), 4), VSTACK(D2:E2, SORT(MID(TOCOL(-y&amp;A3:A10, 2), {1,5}, {4,9}), , -1)))</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <v>2022</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <v>2018</v>
+      </c>
+      <c r="C30" t="str">
+        <v>France</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <v>2014</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <v>2010</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <v>2006</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <v>2002</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="str">
+        <v>1998</v>
+      </c>
+      <c r="C35" t="str">
+        <v>France</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <v>1994</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <v>1990</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <v>1986</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <v>1982</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <v>1978</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <v>1974</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <v>1970</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <v>1966</v>
+      </c>
+      <c r="C43" t="str">
+        <v>England</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <v>1962</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <v>1958</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <v>1954</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <v>1950</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <v>1938</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <v>1934</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <v>1930</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Uruguay</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{FDE85C45-E2D4-4E01-B0B9-FFA0000D268B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
+++ b/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A0882D-26F8-4C97-89E0-5E91595578AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A871008-490F-41AF-AB17-12B6F65A300A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18750" yWindow="230" windowWidth="18870" windowHeight="20330" activeTab="3" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
     <sheet name="EDA" sheetId="3" r:id="rId2"/>
     <sheet name="MySingleFunction" sheetId="4" r:id="rId3"/>
     <sheet name="Alt" sheetId="5" r:id="rId4"/>
+    <sheet name="Alt2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Alt!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Alt2'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MySingleFunction!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!#REF!</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="24">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -134,12 +136,18 @@
   <si>
     <t>Link</t>
   </si>
+  <si>
+    <t>Uses offset, makes it volatile.</t>
+  </si>
+  <si>
+    <t>This solution has the best use of Expand that I have seen yet. Basically, this guy uses it as a substitute for filldown.Great use.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +167,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,11 +212,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,7 +708,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="864" row="9">
+  <wetp:taskpane dockstate="right" visibility="0" width="1187" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2177,7 +2193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C790FA-F128-46E7-B37E-F152F4ECCEE6}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -2633,4 +2649,545 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D36D01E-34F7-4F95-BFB0-E0ABCB02CE0C}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2014</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>2010</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2006</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1994</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1990</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1986</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1982</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1978</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1974</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1970</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1966</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1962</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1958</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1954</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1950</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1938</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1934</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>1930</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="str" cm="1">
+        <f t="array" aca="1" ref="B28:C50" ca="1">_xlfn._xlws.SORT(
+    _xlfn.REDUCE(
+        {"Year","Winner"},
+        A3:A10,
+        _xlfn.LAMBDA(_xlpm.x,_xlpm.y,
+            _xlfn.LET(
+                _xlpm.a, _xlfn.TEXTSPLIT(OFFSET(_xlpm.y, , 1), , ", "),
+                _xlfn.VSTACK(_xlpm.x, _xlfn.HSTACK(_xlpm.a, _xlfn.EXPAND(_xlpm.y, COUNTA(_xlpm.a), , _xlpm.y)))
+            )
+        )
+    ),
+    ,
+    -1
+)</f>
+        <v>Year</v>
+      </c>
+      <c r="C28" t="str">
+        <f ca="1"/>
+        <v>Winner</v>
+      </c>
+      <c r="F28" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B28)</f>
+        <v>=SORT(
+    REDUCE(
+        {"Year","Winner"},
+        A3:A10,
+        LAMBDA(x,y,
+            LET(
+                a, TEXTSPLIT(OFFSET(y, , 1), , ", "),
+                VSTACK(x, HSTACK(a, EXPAND(y, COUNTA(a), , y)))
+            )
+        )
+    ),
+    ,
+    -1
+)</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <f ca="1"/>
+        <v>2022</v>
+      </c>
+      <c r="C29" t="str">
+        <f ca="1"/>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <f ca="1"/>
+        <v>2018</v>
+      </c>
+      <c r="C30" t="str">
+        <f ca="1"/>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <f ca="1"/>
+        <v>2014</v>
+      </c>
+      <c r="C31" t="str">
+        <f ca="1"/>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f ca="1"/>
+        <v>2010</v>
+      </c>
+      <c r="C32" t="str">
+        <f ca="1"/>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <f ca="1"/>
+        <v>2006</v>
+      </c>
+      <c r="C33" t="str">
+        <f ca="1"/>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <f ca="1"/>
+        <v>2002</v>
+      </c>
+      <c r="C34" t="str">
+        <f ca="1"/>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="str">
+        <f ca="1"/>
+        <v>1998</v>
+      </c>
+      <c r="C35" t="str">
+        <f ca="1"/>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <f ca="1"/>
+        <v>1994</v>
+      </c>
+      <c r="C36" t="str">
+        <f ca="1"/>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <f ca="1"/>
+        <v>1990</v>
+      </c>
+      <c r="C37" t="str">
+        <f ca="1"/>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <f ca="1"/>
+        <v>1986</v>
+      </c>
+      <c r="C38" t="str">
+        <f ca="1"/>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <f ca="1"/>
+        <v>1982</v>
+      </c>
+      <c r="C39" t="str">
+        <f ca="1"/>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <f ca="1"/>
+        <v>1978</v>
+      </c>
+      <c r="C40" t="str">
+        <f ca="1"/>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <f ca="1"/>
+        <v>1974</v>
+      </c>
+      <c r="C41" t="str">
+        <f ca="1"/>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <f ca="1"/>
+        <v>1970</v>
+      </c>
+      <c r="C42" t="str">
+        <f ca="1"/>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <f ca="1"/>
+        <v>1966</v>
+      </c>
+      <c r="C43" t="str">
+        <f ca="1"/>
+        <v>England</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f ca="1"/>
+        <v>1962</v>
+      </c>
+      <c r="C44" t="str">
+        <f ca="1"/>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <f ca="1"/>
+        <v>1958</v>
+      </c>
+      <c r="C45" t="str">
+        <f ca="1"/>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <f ca="1"/>
+        <v>1954</v>
+      </c>
+      <c r="C46" t="str">
+        <f ca="1"/>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <f ca="1"/>
+        <v>1950</v>
+      </c>
+      <c r="C47" t="str">
+        <f ca="1"/>
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <f ca="1"/>
+        <v>1938</v>
+      </c>
+      <c r="C48" t="str">
+        <f ca="1"/>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <f ca="1"/>
+        <v>1934</v>
+      </c>
+      <c r="C49" t="str">
+        <f ca="1"/>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <f ca="1"/>
+        <v>1930</v>
+      </c>
+      <c r="C50" t="str">
+        <f ca="1"/>
+        <v>Uruguay</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{5E8C51EC-5BA0-44B3-95DF-58FA7119981B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
+++ b/Excel_Challenge_498 - Soccer Champions Alignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A871008-490F-41AF-AB17-12B6F65A300A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D62B43B-4B69-4157-B165-4A18D9BCD5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{F54B996A-C2D2-412A-8E54-11CA84F94FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
@@ -708,7 +708,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1187" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="813" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2656,7 +2656,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
